--- a/data/especies.xlsx
+++ b/data/especies.xlsx
@@ -2,23 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseca\OneDrive\Escritorio\Biology\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseca\OneDrive\Documents\Iguanas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F039665-C0B6-4AFC-B418-30839D36C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897460F4-7170-449A-ADE8-63565093CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5DFFC6EF-8057-4CDC-B3B1-75F5C3504173}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Analisis" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="288">
   <si>
     <t>Edad</t>
   </si>
@@ -891,6 +895,18 @@
   </si>
   <si>
     <t>Hembra</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Individuos</t>
+  </si>
+  <si>
+    <t>Peso</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,6 +1045,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,6 +1071,3911 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Diosibeth Oviedo" refreshedDate="45985.815191087961" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="279" xr:uid="{E048318C-B3D0-40BA-91FE-69B6CE7571C2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I280" sheet="Datos"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Individuos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="279"/>
+    </cacheField>
+    <cacheField name="Fecha_entrga_CAV" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-09-26T00:00:00" maxDate="2025-11-16T00:00:00"/>
+    </cacheField>
+    <cacheField name="Nombre_comun " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Nombre_científico " numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Peso_Kg" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.23499999999999999" maxValue="6.5" count="123">
+        <n v="1.36"/>
+        <n v="1.7"/>
+        <n v="1.1000000000000001"/>
+        <n v="1"/>
+        <n v="0.98499999999999999"/>
+        <n v="3.52"/>
+        <n v="2.4"/>
+        <n v="1.3"/>
+        <n v="3.4"/>
+        <n v="2.94"/>
+        <n v="3.94"/>
+        <n v="1.72"/>
+        <n v="3.1"/>
+        <n v="1.47"/>
+        <n v="3.73"/>
+        <n v="1.8"/>
+        <n v="0.98"/>
+        <n v="1.59"/>
+        <n v="1.51"/>
+        <n v="2.35"/>
+        <n v="2.29"/>
+        <n v="2.2000000000000002"/>
+        <n v="0.65"/>
+        <n v="1.53"/>
+        <n v="2.85"/>
+        <n v="1.31"/>
+        <n v="2.73"/>
+        <n v="1.67"/>
+        <n v="1.89"/>
+        <n v="1.82"/>
+        <n v="2.06"/>
+        <n v="1.34"/>
+        <n v="1.22"/>
+        <n v="2.46"/>
+        <n v="1.27"/>
+        <n v="1.43"/>
+        <n v="1.46"/>
+        <n v="1.55"/>
+        <n v="1.52"/>
+        <n v="1.76"/>
+        <n v="3.77"/>
+        <n v="1.6"/>
+        <n v="2.2999999999999998"/>
+        <n v="2"/>
+        <n v="3.7"/>
+        <n v="6.5"/>
+        <n v="0.97"/>
+        <n v="2.5"/>
+        <n v="3.5"/>
+        <n v="1.9"/>
+        <n v="0.95"/>
+        <n v="3.9"/>
+        <n v="2.8"/>
+        <n v="1.5"/>
+        <n v="1.2"/>
+        <n v="0.8"/>
+        <n v="5.3"/>
+        <n v="1.02"/>
+        <n v="2.9"/>
+        <n v="1.0549999999999999"/>
+        <n v="1.502"/>
+        <n v="1.0149999999999999"/>
+        <n v="1.4850000000000001"/>
+        <n v="3.21"/>
+        <n v="2.52"/>
+        <n v="1.08"/>
+        <n v="1.73"/>
+        <n v="1.32"/>
+        <n v="0.38500000000000001"/>
+        <n v="1.54"/>
+        <n v="3.3"/>
+        <n v="4.2"/>
+        <n v="2.7"/>
+        <n v="2.64"/>
+        <n v="2.37"/>
+        <n v="0.93"/>
+        <n v="1.23"/>
+        <n v="1.28"/>
+        <n v="4.4000000000000004"/>
+        <n v="0.5"/>
+        <n v="1.4"/>
+        <n v="1.39"/>
+        <n v="1.78"/>
+        <n v="0.875"/>
+        <n v="1.75"/>
+        <n v="1.65"/>
+        <n v="1.35"/>
+        <n v="2.44"/>
+        <n v="2.36"/>
+        <n v="2.25"/>
+        <n v="2.2599999999999998"/>
+        <n v="2.33"/>
+        <n v="1.25"/>
+        <n v="1.45"/>
+        <n v="0.91500000000000004"/>
+        <n v="0.68"/>
+        <n v="0.81499999999999995"/>
+        <n v="1.87"/>
+        <n v="1.26"/>
+        <n v="0.36499999999999999"/>
+        <n v="1.17"/>
+        <n v="1.01"/>
+        <n v="1.41"/>
+        <n v="2.41"/>
+        <n v="2.1"/>
+        <n v="0.23499999999999999"/>
+        <n v="0.59"/>
+        <n v="0.56999999999999995"/>
+        <n v="0.39"/>
+        <n v="0.63"/>
+        <n v="0.995"/>
+        <n v="3.8"/>
+        <n v="2.69"/>
+        <n v="4"/>
+        <n v="0.4"/>
+        <n v="0.6"/>
+        <n v="0.74"/>
+        <n v="1.42"/>
+        <n v="1.18"/>
+        <n v="0.69499999999999995"/>
+        <n v="0.64500000000000002"/>
+        <n v="3.2"/>
+        <n v="1.79"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Edad" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Adulto"/>
+        <s v="Subadulto"/>
+        <s v="Juvenil"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sexo" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Hembra"/>
+        <s v="Macho"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CNI" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estado_Conservación" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="279">
+  <r>
+    <n v="1"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252015"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252016"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252017"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252018"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252019"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252020"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252021"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252022"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252023"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252024"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <d v="2025-09-26T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252025"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <d v="2025-09-29T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252037"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <d v="2025-09-29T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252038"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <d v="2025-09-29T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252039"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <d v="2025-09-29T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252040"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <d v="2025-09-29T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252041"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <d v="2025-09-29T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252042"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252050"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252051"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252052"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252053"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252054"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252055"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252056"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252057"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252058"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252059"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252060"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <d v="2025-09-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252061"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252070"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252071"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252072"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252073"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="30"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252074"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252075"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="32"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252076"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252077"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252078"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252079"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252080"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252081"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252082"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252083"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252084"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <d v="2025-10-02T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252085"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="46"/>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE25114"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE25015"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE25416"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252117"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252118"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252129"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252120"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252121"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252092"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252093"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252094"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="55"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252095"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252096"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252097"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252098"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="56"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE2099"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE2100"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE2101"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <d v="2025-10-03T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE2102"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="57"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252133"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252134"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252135"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE253136"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE253137"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252138"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252139"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="60"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252140"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="61"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252141"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <d v="2025-10-06T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="62"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252142"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="41"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252166"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="63"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252167"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="64"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252168"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252169"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="65"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252170"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="66"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252171"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252172"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="67"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252173"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <d v="2025-10-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252174"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252175"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252176"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252177"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252178"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252179"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252180"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="70"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252181"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="71"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252182"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="72"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252183"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252184"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="73"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252185"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="74"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252186"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252187"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252188"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="75"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252189"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252190"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252191"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="76"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252192"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="77"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252193"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <d v="2025-10-09T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252194"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="78"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37R3252213"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252214"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252215"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252216"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252217"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="79"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252218"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252219"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252220"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252221"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <d v="2025-10-10T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252222"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <d v="2025-10-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252224"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <d v="2025-10-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="46"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252225"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <d v="2025-10-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252226"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <d v="2025-10-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252227"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252242"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252243"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="82"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252244"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252245"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="81"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252246"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="83"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252247"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252248"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252249"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252250"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <d v="2025-10-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252251"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252255"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252256"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252257"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="48"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252258"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252259"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252260"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252261"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252262"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="85"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252263"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <d v="2025-10-16T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252264"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252283"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="77"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252284"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252285"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252286"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252287"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="86"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252288"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="86"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252289"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="87"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252290"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252291"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="88"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252292"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252293"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="90"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252294"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="91"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252295"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="92"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252296"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <d v="2025-10-18T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252297"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="94"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252309"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252310"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="92"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252311"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="92"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252312"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="95"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252313"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="96"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252314"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="97"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252315"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="98"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252316"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="99"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252317"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="100"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252318"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <d v="2025-10-21T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252319"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252385"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="96"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252386"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="101"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252387"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="179"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252388"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252389"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="181"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252390"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="182"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252391"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="183"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252392"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="184"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252393"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="185"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252394"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="186"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252395"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="187"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="102"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252396"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="188"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="103"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252397"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="189"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252398"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="190"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252399"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="191"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="104"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252400"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="104"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252401"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252402"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252403"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <d v="2025-10-30T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252404"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="105"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252409"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252410"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252411"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="95"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252412"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252413"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252414"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252415"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252416"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252417"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252418"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="104"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252419"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <d v="2025-10-31T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252420"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252468"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="106"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252469"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252470"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="107"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252471"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="108"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252472"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252473"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="214"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252474"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="215"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252475"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="216"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="109"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252476"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="217"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252477"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="218"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252478"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="219"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="110"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252479"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="103"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252480"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="70"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252481"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252482"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="223"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252483"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="224"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252484"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="225"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252485"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="226"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252486"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="227"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252487"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="228"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252488"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252489"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252490"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="231"/>
+    <d v="2025-11-05T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252491"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="232"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="111"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252503"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="233"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="111"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252504"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="234"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="70"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252505"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="235"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="112"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252506"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="113"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252507"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="237"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="104"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252508"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="238"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252509"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="239"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="103"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252510"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252511"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="241"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="55"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252512"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="242"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="114"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252513"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="243"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="115"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="37RE252514"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="244"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="116"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252515"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="245"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="117"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252516"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="246"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252517"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="247"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252518"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="248"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="118"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="37RE252519"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="249"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="82"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252520"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252521"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252522"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <d v="2025-11-08T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="119"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252523"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <d v="2025-11-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252543"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="254"/>
+    <d v="2025-11-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252544"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="255"/>
+    <d v="2025-11-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="120"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="37RE252545"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="256"/>
+    <d v="2025-11-11T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252546"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="257"/>
+    <d v="2025-11-12T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252559"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="258"/>
+    <d v="2025-11-12T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="113"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252560"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="259"/>
+    <d v="2025-11-12T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252561"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <d v="2025-11-12T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="113"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252562"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="261"/>
+    <d v="2025-11-12T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="121"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252563"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <d v="2025-11-12T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="72"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252564"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="263"/>
+    <d v="2025-11-13T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="37RE252573"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="264"/>
+    <d v="2025-11-13T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252574"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="265"/>
+    <d v="2025-11-13T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="92"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252575"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="266"/>
+    <d v="2025-11-13T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252576"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="267"/>
+    <d v="2025-11-13T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="113"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252577"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="268"/>
+    <d v="2025-11-13T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="122"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252578"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="269"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252584"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="270"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252585"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="271"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252586"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="272"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252587"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="273"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252588"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="274"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="37RE252589"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="275"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252590"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="276"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="72"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252591"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="277"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252592"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="278"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252593"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+  <r>
+    <n v="279"/>
+    <d v="2025-11-15T00:00:00"/>
+    <s v="Iguana "/>
+    <s v="Iguana iguana "/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="37RE252594"/>
+    <s v="Preocupación Menor  (LC)"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C51CC75-0056-47A4-B021-972034EACC34}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:I6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Individuos" fld="0" subtotal="countNums" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E3529C0-B5BE-4583-B8AB-22A7E9568AA2}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E3:F127" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="2" showAll="0">
+      <items count="124">
+        <item x="105"/>
+        <item x="99"/>
+        <item x="68"/>
+        <item x="108"/>
+        <item x="114"/>
+        <item x="79"/>
+        <item x="107"/>
+        <item x="106"/>
+        <item x="115"/>
+        <item x="109"/>
+        <item x="120"/>
+        <item x="22"/>
+        <item x="95"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="55"/>
+        <item x="96"/>
+        <item x="83"/>
+        <item x="94"/>
+        <item x="75"/>
+        <item x="50"/>
+        <item x="46"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="110"/>
+        <item x="3"/>
+        <item x="101"/>
+        <item x="61"/>
+        <item x="57"/>
+        <item x="59"/>
+        <item x="65"/>
+        <item x="2"/>
+        <item x="100"/>
+        <item x="118"/>
+        <item x="54"/>
+        <item x="32"/>
+        <item x="76"/>
+        <item x="92"/>
+        <item x="98"/>
+        <item x="34"/>
+        <item x="77"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="67"/>
+        <item x="31"/>
+        <item x="86"/>
+        <item x="0"/>
+        <item x="81"/>
+        <item x="80"/>
+        <item x="102"/>
+        <item x="117"/>
+        <item x="35"/>
+        <item x="93"/>
+        <item x="36"/>
+        <item x="13"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item x="60"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="23"/>
+        <item x="69"/>
+        <item x="37"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="85"/>
+        <item x="27"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="66"/>
+        <item x="84"/>
+        <item x="39"/>
+        <item x="82"/>
+        <item x="122"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item x="97"/>
+        <item x="28"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="30"/>
+        <item x="104"/>
+        <item x="21"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="20"/>
+        <item x="42"/>
+        <item x="91"/>
+        <item x="19"/>
+        <item x="88"/>
+        <item x="74"/>
+        <item x="6"/>
+        <item x="103"/>
+        <item x="87"/>
+        <item x="33"/>
+        <item x="47"/>
+        <item x="64"/>
+        <item x="73"/>
+        <item x="112"/>
+        <item x="72"/>
+        <item x="26"/>
+        <item x="52"/>
+        <item x="24"/>
+        <item x="58"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="121"/>
+        <item x="63"/>
+        <item x="70"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="5"/>
+        <item x="44"/>
+        <item x="14"/>
+        <item x="40"/>
+        <item x="111"/>
+        <item x="51"/>
+        <item x="10"/>
+        <item x="113"/>
+        <item x="71"/>
+        <item x="78"/>
+        <item x="56"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="124">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Individuos" fld="0" subtotal="countNums" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FC6FF4-7595-4EED-8055-F949CB41BC6E}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Individuos" fld="0" subtotal="countNums" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1366,7 +5298,7 @@
   <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9913,4 +13845,1100 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7255A84A-EAC8-477A-A2A0-452430E23E10}">
+  <dimension ref="A2:I127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="E2" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="H2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>203</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="20">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="20">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="20">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7">
+        <v>279</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.39</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="19">
+        <v>0.59</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="19">
+        <v>0.63</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="19">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="19">
+        <v>0.68</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="19">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="19">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="19">
+        <v>0.875</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="19">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="19">
+        <v>0.93</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="19">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="19">
+        <v>0.995</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="19">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="19">
+        <v>1.01</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="19">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="19">
+        <v>1.02</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="19">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="19">
+        <v>1.08</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="19">
+        <v>1.17</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="19">
+        <v>1.18</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="19">
+        <v>1.22</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="19">
+        <v>1.23</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="19">
+        <v>1.25</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="19">
+        <v>1.27</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="19">
+        <v>1.28</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="19">
+        <v>1.31</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="19">
+        <v>1.32</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="19">
+        <v>1.34</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="19">
+        <v>1.35</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="19">
+        <v>1.36</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="19">
+        <v>1.39</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="19">
+        <v>1.41</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="19">
+        <v>1.42</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="19">
+        <v>1.43</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="19">
+        <v>1.45</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="19">
+        <v>1.46</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="19">
+        <v>1.47</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="19">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="19">
+        <v>1.502</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="19">
+        <v>1.51</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="19">
+        <v>1.52</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="19">
+        <v>1.53</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="19">
+        <v>1.54</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="19">
+        <v>1.55</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="19">
+        <v>1.59</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="19">
+        <v>1.65</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="19">
+        <v>1.67</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="19">
+        <v>1.72</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="19">
+        <v>1.73</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="19">
+        <v>1.75</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="19">
+        <v>1.76</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="19">
+        <v>1.78</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="19">
+        <v>1.79</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="19">
+        <v>1.82</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="19">
+        <v>1.87</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="19">
+        <v>1.89</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="19">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="19">
+        <v>2.06</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="19">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="19">
+        <v>2.29</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="19">
+        <v>2.33</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="19">
+        <v>2.35</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="19">
+        <v>2.36</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="19">
+        <v>2.37</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="19">
+        <v>2.41</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="19">
+        <v>2.44</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="19">
+        <v>2.46</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="19">
+        <v>2.52</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="19">
+        <v>2.64</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="19">
+        <v>2.69</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="19">
+        <v>2.73</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="19">
+        <v>2.85</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="19">
+        <v>2.9</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="19">
+        <v>2.94</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="19">
+        <v>3.21</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="19">
+        <v>3.52</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="19">
+        <v>3.73</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="19">
+        <v>3.77</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="19">
+        <v>3.94</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="19">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F127">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>